--- a/CUMCM2022支撑材料/excel/result/2/k-means_铅钡_oversample.xlsx
+++ b/CUMCM2022支撑材料/excel/result/2/k-means_铅钡_oversample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -618,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -724,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -777,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -989,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1095,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1148,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1201,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1254,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1307,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1360,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1413,7 +1413,7 @@
         <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1466,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1519,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1572,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1678,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1784,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1837,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1890,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1943,7 +1943,7 @@
         <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2049,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -2208,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2473,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2632,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2685,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2738,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2791,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2950,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -3003,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3056,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -3117,49 +3117,49 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>60.12</v>
+        <v>17.98</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0135197057870407</v>
+        <v>0.48544835414302</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23</v>
+        <v>0.0590497810929139</v>
       </c>
       <c r="E51" t="n">
-        <v>0.89</v>
+        <v>3.19</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00233059504854351</v>
+        <v>0.47</v>
       </c>
       <c r="G51" t="n">
-        <v>2.72</v>
+        <v>1.87</v>
       </c>
       <c r="H51" t="n">
-        <v>0.00260029026758295</v>
+        <v>0.33</v>
       </c>
       <c r="I51" t="n">
-        <v>3.01</v>
+        <v>1.13</v>
       </c>
       <c r="J51" t="n">
-        <v>17.24</v>
+        <v>44</v>
       </c>
       <c r="K51" t="n">
-        <v>10.34</v>
+        <v>14.2</v>
       </c>
       <c r="L51" t="n">
-        <v>1.46</v>
+        <v>6.34</v>
       </c>
       <c r="M51" t="n">
-        <v>0.31</v>
+        <v>0.66</v>
       </c>
       <c r="N51" t="n">
-        <v>0.00154940889684307</v>
+        <v>0.0776260742662558</v>
       </c>
       <c r="O51" t="n">
-        <v>3.66</v>
+        <v>1.37787579049781</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -3170,49 +3170,49 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>50.61</v>
+        <v>35.78</v>
       </c>
       <c r="C52" t="n">
-        <v>2.31</v>
+        <v>0.501757106463534</v>
       </c>
       <c r="D52" t="n">
-        <v>0.126022597880354</v>
+        <v>0.25</v>
       </c>
       <c r="E52" t="n">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="F52" t="n">
-        <v>0.320924936498205</v>
+        <v>0.171058593710667</v>
       </c>
       <c r="G52" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="H52" t="n">
-        <v>1.55</v>
+        <v>0.47</v>
       </c>
       <c r="I52" t="n">
-        <v>1.12</v>
+        <v>1.51</v>
       </c>
       <c r="J52" t="n">
-        <v>31.9</v>
+        <v>46.55</v>
       </c>
       <c r="K52" t="n">
-        <v>6.65</v>
+        <v>10</v>
       </c>
       <c r="L52" t="n">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="M52" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="N52" t="n">
-        <v>0.181308574932119</v>
+        <v>0.107460402170958</v>
       </c>
       <c r="O52" t="n">
-        <v>1.37174389068932</v>
+        <v>1.21972389765484</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -3223,49 +3223,49 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>75.51000000000001</v>
+        <v>26.25</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0169961996980609</v>
+        <v>0.194223855663216</v>
       </c>
       <c r="D53" t="n">
-        <v>0.15</v>
+        <v>0.0368105579685936</v>
       </c>
       <c r="E53" t="n">
-        <v>0.64</v>
+        <v>1.11</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0.100581690611427</v>
       </c>
       <c r="G53" t="n">
-        <v>2.35</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00554635847779773</v>
+        <v>0.0453140661543605</v>
       </c>
       <c r="I53" t="n">
-        <v>0.47</v>
+        <v>0.88</v>
       </c>
       <c r="J53" t="n">
-        <v>16.16</v>
+        <v>61.03</v>
       </c>
       <c r="K53" t="n">
-        <v>3.55</v>
+        <v>7.22</v>
       </c>
       <c r="L53" t="n">
-        <v>0.13</v>
+        <v>1.16</v>
       </c>
       <c r="M53" t="n">
-        <v>0.00185121557603236</v>
+        <v>0.61</v>
       </c>
       <c r="N53" t="n">
-        <v>0.00377114894060135</v>
+        <v>0.0610574674239897</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0118350773075139</v>
+        <v>0.802012362178422</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -3276,52 +3276,52 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.72</v>
+        <v>26.25</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0825254420598511</v>
+        <v>0.194223855663216</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4</v>
+        <v>0.0368105579685936</v>
       </c>
       <c r="E54" t="n">
-        <v>3.01</v>
+        <v>1.11</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0110468707243642</v>
+        <v>0.100581690611427</v>
       </c>
       <c r="G54" t="n">
-        <v>1.18</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
-        <v>0.008111358690693821</v>
+        <v>0.0453140661543605</v>
       </c>
       <c r="I54" t="n">
-        <v>3.6</v>
+        <v>0.88</v>
       </c>
       <c r="J54" t="n">
-        <v>29.92</v>
+        <v>61.03</v>
       </c>
       <c r="K54" t="n">
-        <v>35.45</v>
+        <v>7.22</v>
       </c>
       <c r="L54" t="n">
-        <v>6.04</v>
+        <v>1.16</v>
       </c>
       <c r="M54" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="N54" t="n">
-        <v>0.008316328525076079</v>
+        <v>0.0610574674239897</v>
       </c>
       <c r="O54" t="n">
-        <v>15.95</v>
+        <v>0.802012362178422</v>
       </c>
       <c r="P54" t="n">
         <v>2</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -3329,52 +3329,52 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.72</v>
+        <v>29.15</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0825254420598511</v>
+        <v>0.632595957600895</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4</v>
+        <v>0.0456251234445981</v>
       </c>
       <c r="E55" t="n">
-        <v>3.01</v>
+        <v>1.21</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0110468707243642</v>
+        <v>0.129929554282705</v>
       </c>
       <c r="G55" t="n">
-        <v>1.18</v>
+        <v>1.85</v>
       </c>
       <c r="H55" t="n">
-        <v>0.008111358690693821</v>
+        <v>0.111396405293304</v>
       </c>
       <c r="I55" t="n">
-        <v>3.6</v>
+        <v>0.79</v>
       </c>
       <c r="J55" t="n">
-        <v>29.92</v>
+        <v>41.25</v>
       </c>
       <c r="K55" t="n">
-        <v>35.45</v>
+        <v>15.45</v>
       </c>
       <c r="L55" t="n">
-        <v>6.04</v>
+        <v>2.54</v>
       </c>
       <c r="M55" t="n">
-        <v>0.62</v>
+        <v>0.07523536770030941</v>
       </c>
       <c r="N55" t="n">
-        <v>0.008316328525076079</v>
+        <v>0.0950358812298373</v>
       </c>
       <c r="O55" t="n">
-        <v>15.95</v>
+        <v>0.9101817104483509</v>
       </c>
       <c r="P55" t="n">
         <v>2</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3382,52 +3382,52 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.61</v>
+        <v>26.25</v>
       </c>
       <c r="C56" t="n">
-        <v>1.25719253615223</v>
+        <v>0.194223855663216</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0836346122973185</v>
+        <v>0.0368105579685936</v>
       </c>
       <c r="E56" t="n">
-        <v>3.19</v>
+        <v>1.11</v>
       </c>
       <c r="F56" t="n">
-        <v>0.162292008842016</v>
+        <v>0.100581690611427</v>
       </c>
       <c r="G56" t="n">
-        <v>1.11</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
-        <v>0.130624745298047</v>
+        <v>0.0453140661543605</v>
       </c>
       <c r="I56" t="n">
-        <v>3.14</v>
+        <v>0.88</v>
       </c>
       <c r="J56" t="n">
-        <v>32.45</v>
+        <v>61.03</v>
       </c>
       <c r="K56" t="n">
-        <v>30.62</v>
+        <v>7.22</v>
       </c>
       <c r="L56" t="n">
-        <v>7.56</v>
+        <v>1.16</v>
       </c>
       <c r="M56" t="n">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="N56" t="n">
-        <v>0.126256097410375</v>
+        <v>0.0610574674239897</v>
       </c>
       <c r="O56" t="n">
-        <v>15.03</v>
+        <v>0.802012362178422</v>
       </c>
       <c r="P56" t="n">
         <v>2</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3435,52 +3435,52 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.72</v>
+        <v>36.93</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0825254420598511</v>
+        <v>0.399202274753232</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4</v>
+        <v>0.133352202853852</v>
       </c>
       <c r="E57" t="n">
-        <v>3.01</v>
+        <v>4.24</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0110468707243642</v>
+        <v>0.51</v>
       </c>
       <c r="G57" t="n">
-        <v>1.18</v>
+        <v>3.86</v>
       </c>
       <c r="H57" t="n">
-        <v>0.008111358690693821</v>
+        <v>2.74</v>
       </c>
       <c r="I57" t="n">
-        <v>3.6</v>
+        <v>0.233233129672646</v>
       </c>
       <c r="J57" t="n">
-        <v>29.92</v>
+        <v>37.74</v>
       </c>
       <c r="K57" t="n">
-        <v>35.45</v>
+        <v>10.35</v>
       </c>
       <c r="L57" t="n">
-        <v>6.04</v>
+        <v>1.41</v>
       </c>
       <c r="M57" t="n">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="N57" t="n">
-        <v>0.008316328525076079</v>
+        <v>0.44</v>
       </c>
       <c r="O57" t="n">
-        <v>15.95</v>
+        <v>0.534212392720268</v>
       </c>
       <c r="P57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3488,52 +3488,52 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19.79</v>
+        <v>37.36</v>
       </c>
       <c r="C58" t="n">
-        <v>0.127440263865141</v>
+        <v>0.687983223002679</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00761250916198416</v>
+        <v>0.71</v>
       </c>
       <c r="E58" t="n">
-        <v>1.44</v>
+        <v>0.620483602001112</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0177361348644033</v>
+        <v>0.138283895093233</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>5.45</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0134769118006357</v>
+        <v>1.51</v>
       </c>
       <c r="I58" t="n">
-        <v>10.57</v>
+        <v>4.78</v>
       </c>
       <c r="J58" t="n">
-        <v>29.53</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>32.25</v>
+        <v>23.55</v>
       </c>
       <c r="L58" t="n">
-        <v>3.13</v>
+        <v>5.75</v>
       </c>
       <c r="M58" t="n">
-        <v>0.45</v>
+        <v>0.0360680175855273</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0137341803078432</v>
+        <v>0.0678786194350396</v>
       </c>
       <c r="O58" t="n">
-        <v>1.96</v>
+        <v>0.449302642882409</v>
       </c>
       <c r="P58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -3541,52 +3541,52 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>31.94</v>
+        <v>34.34</v>
       </c>
       <c r="C59" t="n">
-        <v>0.480555540154682</v>
+        <v>0.492324772091633</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0174645857012168</v>
+        <v>1.41</v>
       </c>
       <c r="E59" t="n">
-        <v>0.47</v>
+        <v>4.49</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0632994206192992</v>
+        <v>0.98</v>
       </c>
       <c r="G59" t="n">
-        <v>1.59</v>
+        <v>4.35</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0433276966151966</v>
+        <v>2.12</v>
       </c>
       <c r="I59" t="n">
-        <v>8.460000000000001</v>
+        <v>0.24303465061167</v>
       </c>
       <c r="J59" t="n">
-        <v>29.14</v>
+        <v>39.22</v>
       </c>
       <c r="K59" t="n">
-        <v>26.23</v>
+        <v>10.29</v>
       </c>
       <c r="L59" t="n">
-        <v>0.14</v>
+        <v>0.672986186724738</v>
       </c>
       <c r="M59" t="n">
-        <v>0.91</v>
+        <v>0.35</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0425204446538959</v>
+        <v>0.4</v>
       </c>
       <c r="O59" t="n">
-        <v>0.4728323122557</v>
+        <v>0.591654390571959</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3594,52 +3594,52 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20.14</v>
+        <v>54.61</v>
       </c>
       <c r="C60" t="n">
-        <v>0.127769334477259</v>
+        <v>0.829537207228524</v>
       </c>
       <c r="D60" t="n">
-        <v>0.00734428238754719</v>
+        <v>0.3</v>
       </c>
       <c r="E60" t="n">
-        <v>1.48</v>
+        <v>2.08</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0173293295747021</v>
+        <v>1.2</v>
       </c>
       <c r="G60" t="n">
-        <v>1.34</v>
+        <v>6.5</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0135722515014089</v>
+        <v>1.27</v>
       </c>
       <c r="I60" t="n">
-        <v>10.41</v>
+        <v>0.45</v>
       </c>
       <c r="J60" t="n">
-        <v>28.68</v>
+        <v>23.02</v>
       </c>
       <c r="K60" t="n">
-        <v>31.23</v>
+        <v>4.19</v>
       </c>
       <c r="L60" t="n">
-        <v>3.59</v>
+        <v>4.32</v>
       </c>
       <c r="M60" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0139848020590753</v>
+        <v>0.192338350106463</v>
       </c>
       <c r="O60" t="n">
-        <v>2.58</v>
+        <v>0.738124442665019</v>
       </c>
       <c r="P60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3647,52 +3647,52 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20.14</v>
+        <v>65.91</v>
       </c>
       <c r="C61" t="n">
-        <v>0.127769334477259</v>
+        <v>0.683650912692801</v>
       </c>
       <c r="D61" t="n">
-        <v>0.00734428238754719</v>
+        <v>0.342325314843641</v>
       </c>
       <c r="E61" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0173293295747021</v>
+        <v>0.89</v>
       </c>
       <c r="G61" t="n">
-        <v>1.34</v>
+        <v>3.11</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0135722515014089</v>
+        <v>4.59</v>
       </c>
       <c r="I61" t="n">
-        <v>10.41</v>
+        <v>0.44</v>
       </c>
       <c r="J61" t="n">
-        <v>28.68</v>
+        <v>16.55</v>
       </c>
       <c r="K61" t="n">
-        <v>31.23</v>
+        <v>3.42</v>
       </c>
       <c r="L61" t="n">
-        <v>3.59</v>
+        <v>1.62</v>
       </c>
       <c r="M61" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="N61" t="n">
-        <v>0.0139848020590753</v>
+        <v>0.144759020800906</v>
       </c>
       <c r="O61" t="n">
-        <v>2.58</v>
+        <v>0.39926475166266</v>
       </c>
       <c r="P61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -3700,52 +3700,52 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16.71</v>
+        <v>36.28</v>
       </c>
       <c r="C62" t="n">
-        <v>0.280371537076878</v>
+        <v>0.0200158952427834</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0369789700136104</v>
+        <v>1.05</v>
       </c>
       <c r="E62" t="n">
-        <v>1.87</v>
+        <v>2.34</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0649093932475746</v>
+        <v>1.18</v>
       </c>
       <c r="G62" t="n">
-        <v>0.45</v>
+        <v>5.73</v>
       </c>
       <c r="H62" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J62" t="n">
+        <v>47.43</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.0576650392965796</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="M62" t="n">
         <v>0.19</v>
       </c>
-      <c r="I62" t="n">
-        <v>0.395318687711289</v>
-      </c>
-      <c r="J62" t="n">
-        <v>70.20999999999999</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.68</v>
-      </c>
       <c r="N62" t="n">
-        <v>0.0467809083724812</v>
+        <v>0.00364404748388444</v>
       </c>
       <c r="O62" t="n">
-        <v>0.605640503578174</v>
+        <v>0.0286750179767662</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
       </c>
       <c r="Q62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -3753,52 +3753,52 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>32.93</v>
+        <v>36.28</v>
       </c>
       <c r="C63" t="n">
-        <v>1.38</v>
+        <v>0.0200158952427834</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0608854818523151</v>
+        <v>1.05</v>
       </c>
       <c r="E63" t="n">
-        <v>0.68</v>
+        <v>2.34</v>
       </c>
       <c r="F63" t="n">
-        <v>0.135710262828535</v>
+        <v>1.18</v>
       </c>
       <c r="G63" t="n">
-        <v>2.57</v>
+        <v>5.73</v>
       </c>
       <c r="H63" t="n">
-        <v>0.29</v>
+        <v>1.86</v>
       </c>
       <c r="I63" t="n">
-        <v>0.73</v>
+        <v>0.26</v>
       </c>
       <c r="J63" t="n">
-        <v>49.31</v>
+        <v>47.43</v>
       </c>
       <c r="K63" t="n">
-        <v>9.789999999999999</v>
+        <v>0.0576650392965796</v>
       </c>
       <c r="L63" t="n">
-        <v>0.48</v>
+        <v>3.57</v>
       </c>
       <c r="M63" t="n">
-        <v>0.41</v>
+        <v>0.19</v>
       </c>
       <c r="N63" t="n">
-        <v>0.11046464330413</v>
+        <v>0.00364404748388444</v>
       </c>
       <c r="O63" t="n">
-        <v>1.12293961201501</v>
+        <v>0.0286750179767662</v>
       </c>
       <c r="P63" t="n">
         <v>2</v>
       </c>
       <c r="Q63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -3806,52 +3806,52 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>39.57</v>
+        <v>4.61</v>
       </c>
       <c r="C64" t="n">
-        <v>2.22</v>
+        <v>1.25719253615223</v>
       </c>
       <c r="D64" t="n">
-        <v>0.14</v>
+        <v>0.0836346122973185</v>
       </c>
       <c r="E64" t="n">
-        <v>0.37</v>
+        <v>3.19</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1546749592125</v>
+        <v>0.162292008842016</v>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="H64" t="n">
-        <v>0.32</v>
+        <v>0.130624745298047</v>
       </c>
       <c r="I64" t="n">
-        <v>0.68</v>
+        <v>3.14</v>
       </c>
       <c r="J64" t="n">
-        <v>41.61</v>
+        <v>32.45</v>
       </c>
       <c r="K64" t="n">
-        <v>10.83</v>
+        <v>30.62</v>
       </c>
       <c r="L64" t="n">
-        <v>0.07000000000000001</v>
+        <v>7.56</v>
       </c>
       <c r="M64" t="n">
-        <v>0.22</v>
+        <v>0.53</v>
       </c>
       <c r="N64" t="n">
-        <v>0.11337282512291</v>
+        <v>0.126256097410375</v>
       </c>
       <c r="O64" t="n">
-        <v>1.73195221566459</v>
+        <v>15.03</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
       </c>
       <c r="Q64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -3859,52 +3859,52 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>29.15</v>
+        <v>4.61</v>
       </c>
       <c r="C65" t="n">
-        <v>0.632595957600895</v>
+        <v>1.25719253615223</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0456251234445981</v>
+        <v>0.0836346122973185</v>
       </c>
       <c r="E65" t="n">
-        <v>1.21</v>
+        <v>3.19</v>
       </c>
       <c r="F65" t="n">
-        <v>0.129929554282705</v>
+        <v>0.162292008842016</v>
       </c>
       <c r="G65" t="n">
-        <v>1.85</v>
+        <v>1.11</v>
       </c>
       <c r="H65" t="n">
-        <v>0.111396405293304</v>
+        <v>0.130624745298047</v>
       </c>
       <c r="I65" t="n">
-        <v>0.79</v>
+        <v>3.14</v>
       </c>
       <c r="J65" t="n">
-        <v>41.25</v>
+        <v>32.45</v>
       </c>
       <c r="K65" t="n">
-        <v>15.45</v>
+        <v>30.62</v>
       </c>
       <c r="L65" t="n">
-        <v>2.54</v>
+        <v>7.56</v>
       </c>
       <c r="M65" t="n">
-        <v>0.07523536770030941</v>
+        <v>0.53</v>
       </c>
       <c r="N65" t="n">
-        <v>0.0950358812298373</v>
+        <v>0.126256097410375</v>
       </c>
       <c r="O65" t="n">
-        <v>0.9101817104483509</v>
+        <v>15.03</v>
       </c>
       <c r="P65" t="n">
         <v>2</v>
       </c>
       <c r="Q65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3912,52 +3912,52 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>25.42</v>
+        <v>3.72</v>
       </c>
       <c r="C66" t="n">
-        <v>0.509729441106297</v>
+        <v>0.0825254420598511</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0413509695646591</v>
+        <v>0.4</v>
       </c>
       <c r="E66" t="n">
-        <v>1.31</v>
+        <v>3.01</v>
       </c>
       <c r="F66" t="n">
-        <v>0.110548620169919</v>
+        <v>0.0110468707243642</v>
       </c>
       <c r="G66" t="n">
-        <v>2.18</v>
+        <v>1.18</v>
       </c>
       <c r="H66" t="n">
-        <v>0.104411536095922</v>
+        <v>0.008111358690693821</v>
       </c>
       <c r="I66" t="n">
-        <v>1.16</v>
+        <v>3.6</v>
       </c>
       <c r="J66" t="n">
-        <v>45.1</v>
+        <v>29.92</v>
       </c>
       <c r="K66" t="n">
-        <v>17.3</v>
+        <v>35.45</v>
       </c>
       <c r="L66" t="n">
-        <v>0.376497941913986</v>
+        <v>6.04</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0637094212351219</v>
+        <v>0.62</v>
       </c>
       <c r="N66" t="n">
-        <v>0.07980912857461479</v>
+        <v>0.008316328525076079</v>
       </c>
       <c r="O66" t="n">
-        <v>0.71394294133948</v>
+        <v>15.95</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
       </c>
       <c r="Q66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -3965,52 +3965,52 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>60.74</v>
+        <v>4.61</v>
       </c>
       <c r="C67" t="n">
-        <v>3.06</v>
+        <v>1.25719253615223</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2</v>
+        <v>0.0836346122973185</v>
       </c>
       <c r="E67" t="n">
-        <v>2.14</v>
+        <v>3.19</v>
       </c>
       <c r="F67" t="n">
-        <v>0.176796443315337</v>
+        <v>0.162292008842016</v>
       </c>
       <c r="G67" t="n">
-        <v>12.69</v>
+        <v>1.11</v>
       </c>
       <c r="H67" t="n">
-        <v>0.77</v>
+        <v>0.130624745298047</v>
       </c>
       <c r="I67" t="n">
-        <v>0.43</v>
+        <v>3.14</v>
       </c>
       <c r="J67" t="n">
-        <v>13.61</v>
+        <v>32.45</v>
       </c>
       <c r="K67" t="n">
-        <v>5.22</v>
+        <v>30.62</v>
       </c>
       <c r="L67" t="n">
-        <v>0.245849476024133</v>
+        <v>7.56</v>
       </c>
       <c r="M67" t="n">
-        <v>0.26</v>
+        <v>0.53</v>
       </c>
       <c r="N67" t="n">
-        <v>0.134598920292156</v>
+        <v>0.126256097410375</v>
       </c>
       <c r="O67" t="n">
-        <v>0.322755160368369</v>
+        <v>15.03</v>
       </c>
       <c r="P67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -4018,52 +4018,52 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>54.61</v>
+        <v>3.72</v>
       </c>
       <c r="C68" t="n">
-        <v>0.829537207228524</v>
+        <v>0.0825254420598511</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E68" t="n">
-        <v>2.08</v>
+        <v>3.01</v>
       </c>
       <c r="F68" t="n">
-        <v>1.2</v>
+        <v>0.0110468707243642</v>
       </c>
       <c r="G68" t="n">
-        <v>6.5</v>
+        <v>1.18</v>
       </c>
       <c r="H68" t="n">
-        <v>1.27</v>
+        <v>0.008111358690693821</v>
       </c>
       <c r="I68" t="n">
-        <v>0.45</v>
+        <v>3.6</v>
       </c>
       <c r="J68" t="n">
-        <v>23.02</v>
+        <v>29.92</v>
       </c>
       <c r="K68" t="n">
-        <v>4.19</v>
+        <v>35.45</v>
       </c>
       <c r="L68" t="n">
-        <v>4.32</v>
+        <v>6.04</v>
       </c>
       <c r="M68" t="n">
-        <v>0.3</v>
+        <v>0.62</v>
       </c>
       <c r="N68" t="n">
-        <v>0.192338350106463</v>
+        <v>0.008316328525076079</v>
       </c>
       <c r="O68" t="n">
-        <v>0.738124442665019</v>
+        <v>15.95</v>
       </c>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -4071,52 +4071,52 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>53.33</v>
+        <v>3.72</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8</v>
+        <v>0.0825254420598511</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="E69" t="n">
-        <v>2.82</v>
+        <v>3.01</v>
       </c>
       <c r="F69" t="n">
-        <v>1.54</v>
+        <v>0.0110468707243642</v>
       </c>
       <c r="G69" t="n">
-        <v>13.65</v>
+        <v>1.18</v>
       </c>
       <c r="H69" t="n">
-        <v>1.03</v>
+        <v>0.008111358690693821</v>
       </c>
       <c r="I69" t="n">
-        <v>0.30952990556139</v>
+        <v>3.6</v>
       </c>
       <c r="J69" t="n">
-        <v>15.71</v>
+        <v>29.92</v>
       </c>
       <c r="K69" t="n">
-        <v>7.31</v>
+        <v>35.45</v>
       </c>
       <c r="L69" t="n">
-        <v>1.1</v>
+        <v>6.04</v>
       </c>
       <c r="M69" t="n">
-        <v>0.25</v>
+        <v>0.62</v>
       </c>
       <c r="N69" t="n">
-        <v>1.31</v>
+        <v>0.008316328525076079</v>
       </c>
       <c r="O69" t="n">
-        <v>0.520470094438622</v>
+        <v>15.95</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
       </c>
       <c r="Q69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -4124,52 +4124,52 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>36.93</v>
+        <v>4.61</v>
       </c>
       <c r="C70" t="n">
-        <v>0.399202274753232</v>
+        <v>1.25719253615223</v>
       </c>
       <c r="D70" t="n">
-        <v>0.133352202853852</v>
+        <v>0.0836346122973185</v>
       </c>
       <c r="E70" t="n">
-        <v>4.24</v>
+        <v>3.19</v>
       </c>
       <c r="F70" t="n">
-        <v>0.51</v>
+        <v>0.162292008842016</v>
       </c>
       <c r="G70" t="n">
-        <v>3.86</v>
+        <v>1.11</v>
       </c>
       <c r="H70" t="n">
-        <v>2.74</v>
+        <v>0.130624745298047</v>
       </c>
       <c r="I70" t="n">
-        <v>0.233233129672646</v>
+        <v>3.14</v>
       </c>
       <c r="J70" t="n">
-        <v>37.74</v>
+        <v>32.45</v>
       </c>
       <c r="K70" t="n">
-        <v>10.35</v>
+        <v>30.62</v>
       </c>
       <c r="L70" t="n">
-        <v>1.41</v>
+        <v>7.56</v>
       </c>
       <c r="M70" t="n">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
       <c r="N70" t="n">
-        <v>0.44</v>
+        <v>0.126256097410375</v>
       </c>
       <c r="O70" t="n">
-        <v>0.534212392720268</v>
+        <v>15.03</v>
       </c>
       <c r="P70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -4177,52 +4177,52 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>51.26</v>
+        <v>4.61</v>
       </c>
       <c r="C71" t="n">
-        <v>5.74</v>
+        <v>1.25719253615223</v>
       </c>
       <c r="D71" t="n">
-        <v>0.15</v>
+        <v>0.0836346122973185</v>
       </c>
       <c r="E71" t="n">
-        <v>0.79</v>
+        <v>3.19</v>
       </c>
       <c r="F71" t="n">
-        <v>1.09</v>
+        <v>0.162292008842016</v>
       </c>
       <c r="G71" t="n">
-        <v>3.53</v>
+        <v>1.11</v>
       </c>
       <c r="H71" t="n">
-        <v>0.607606181802376</v>
+        <v>0.130624745298047</v>
       </c>
       <c r="I71" t="n">
-        <v>2.67</v>
+        <v>3.14</v>
       </c>
       <c r="J71" t="n">
-        <v>21.88</v>
+        <v>32.45</v>
       </c>
       <c r="K71" t="n">
-        <v>10.47</v>
+        <v>30.62</v>
       </c>
       <c r="L71" t="n">
-        <v>0.08</v>
+        <v>7.56</v>
       </c>
       <c r="M71" t="n">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
       <c r="N71" t="n">
-        <v>0.199060557318611</v>
+        <v>0.126256097410375</v>
       </c>
       <c r="O71" t="n">
-        <v>1.18333326087902</v>
+        <v>15.03</v>
       </c>
       <c r="P71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -4230,52 +4230,52 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>51.26</v>
+        <v>3.72</v>
       </c>
       <c r="C72" t="n">
-        <v>5.74</v>
+        <v>0.0825254420598511</v>
       </c>
       <c r="D72" t="n">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="E72" t="n">
-        <v>0.79</v>
+        <v>3.01</v>
       </c>
       <c r="F72" t="n">
-        <v>1.09</v>
+        <v>0.0110468707243642</v>
       </c>
       <c r="G72" t="n">
-        <v>3.53</v>
+        <v>1.18</v>
       </c>
       <c r="H72" t="n">
-        <v>0.607606181802376</v>
+        <v>0.008111358690693821</v>
       </c>
       <c r="I72" t="n">
-        <v>2.67</v>
+        <v>3.6</v>
       </c>
       <c r="J72" t="n">
-        <v>21.88</v>
+        <v>29.92</v>
       </c>
       <c r="K72" t="n">
-        <v>10.47</v>
+        <v>35.45</v>
       </c>
       <c r="L72" t="n">
-        <v>0.08</v>
+        <v>6.04</v>
       </c>
       <c r="M72" t="n">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
       <c r="N72" t="n">
-        <v>0.199060557318611</v>
+        <v>0.008316328525076079</v>
       </c>
       <c r="O72" t="n">
-        <v>1.18333326087902</v>
+        <v>15.95</v>
       </c>
       <c r="P72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -4283,52 +4283,52 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>53.79</v>
+        <v>3.72</v>
       </c>
       <c r="C73" t="n">
-        <v>7.92</v>
+        <v>0.0825254420598511</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0591020784273575</v>
+        <v>0.4</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5</v>
+        <v>3.01</v>
       </c>
       <c r="F73" t="n">
-        <v>0.71</v>
+        <v>0.0110468707243642</v>
       </c>
       <c r="G73" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0983669499334494</v>
+        <v>0.008111358690693821</v>
       </c>
       <c r="I73" t="n">
-        <v>2.99</v>
+        <v>3.6</v>
       </c>
       <c r="J73" t="n">
-        <v>16.98</v>
+        <v>29.92</v>
       </c>
       <c r="K73" t="n">
-        <v>11.86</v>
+        <v>35.45</v>
       </c>
       <c r="L73" t="n">
-        <v>0.119432783864032</v>
+        <v>6.04</v>
       </c>
       <c r="M73" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="N73" t="n">
-        <v>0.136531176410361</v>
+        <v>0.008316328525076079</v>
       </c>
       <c r="O73" t="n">
-        <v>1.5865670113648</v>
+        <v>15.95</v>
       </c>
       <c r="P73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -4336,52 +4336,52 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>51.26</v>
+        <v>3.72</v>
       </c>
       <c r="C74" t="n">
-        <v>5.74</v>
+        <v>0.0825254420598511</v>
       </c>
       <c r="D74" t="n">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="E74" t="n">
-        <v>0.79</v>
+        <v>3.01</v>
       </c>
       <c r="F74" t="n">
-        <v>1.09</v>
+        <v>0.0110468707243642</v>
       </c>
       <c r="G74" t="n">
-        <v>3.53</v>
+        <v>1.18</v>
       </c>
       <c r="H74" t="n">
-        <v>0.607606181802376</v>
+        <v>0.008111358690693821</v>
       </c>
       <c r="I74" t="n">
-        <v>2.67</v>
+        <v>3.6</v>
       </c>
       <c r="J74" t="n">
-        <v>21.88</v>
+        <v>29.92</v>
       </c>
       <c r="K74" t="n">
-        <v>10.47</v>
+        <v>35.45</v>
       </c>
       <c r="L74" t="n">
-        <v>0.08</v>
+        <v>6.04</v>
       </c>
       <c r="M74" t="n">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
       <c r="N74" t="n">
-        <v>0.199060557318611</v>
+        <v>0.008316328525076079</v>
       </c>
       <c r="O74" t="n">
-        <v>1.18333326087902</v>
+        <v>15.95</v>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -4389,52 +4389,52 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>53.79</v>
+        <v>3.72</v>
       </c>
       <c r="C75" t="n">
-        <v>7.92</v>
+        <v>0.0825254420598511</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0591020784273575</v>
+        <v>0.4</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5</v>
+        <v>3.01</v>
       </c>
       <c r="F75" t="n">
-        <v>0.71</v>
+        <v>0.0110468707243642</v>
       </c>
       <c r="G75" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0983669499334494</v>
+        <v>0.008111358690693821</v>
       </c>
       <c r="I75" t="n">
-        <v>2.99</v>
+        <v>3.6</v>
       </c>
       <c r="J75" t="n">
-        <v>16.98</v>
+        <v>29.92</v>
       </c>
       <c r="K75" t="n">
-        <v>11.86</v>
+        <v>35.45</v>
       </c>
       <c r="L75" t="n">
-        <v>0.119432783864032</v>
+        <v>6.04</v>
       </c>
       <c r="M75" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="N75" t="n">
-        <v>0.136531176410361</v>
+        <v>0.008316328525076079</v>
       </c>
       <c r="O75" t="n">
-        <v>1.5865670113648</v>
+        <v>15.95</v>
       </c>
       <c r="P75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -4442,52 +4442,52 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>51.54</v>
+        <v>4.61</v>
       </c>
       <c r="C76" t="n">
-        <v>4.66</v>
+        <v>1.25719253615223</v>
       </c>
       <c r="D76" t="n">
-        <v>0.29</v>
+        <v>0.0836346122973185</v>
       </c>
       <c r="E76" t="n">
-        <v>0.87</v>
+        <v>3.19</v>
       </c>
       <c r="F76" t="n">
-        <v>0.61</v>
+        <v>0.162292008842016</v>
       </c>
       <c r="G76" t="n">
-        <v>3.06</v>
+        <v>1.11</v>
       </c>
       <c r="H76" t="n">
-        <v>0.468709903890382</v>
+        <v>0.130624745298047</v>
       </c>
       <c r="I76" t="n">
-        <v>0.65</v>
+        <v>3.14</v>
       </c>
       <c r="J76" t="n">
-        <v>25.4</v>
+        <v>32.45</v>
       </c>
       <c r="K76" t="n">
-        <v>9.23</v>
+        <v>30.62</v>
       </c>
       <c r="L76" t="n">
-        <v>0.1</v>
+        <v>7.56</v>
       </c>
       <c r="M76" t="n">
-        <v>0.85</v>
+        <v>0.53</v>
       </c>
       <c r="N76" t="n">
-        <v>0.132616747766722</v>
+        <v>0.126256097410375</v>
       </c>
       <c r="O76" t="n">
-        <v>1.3986733483429</v>
+        <v>15.03</v>
       </c>
       <c r="P76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -4495,52 +4495,52 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>53.79</v>
+        <v>19.79</v>
       </c>
       <c r="C77" t="n">
-        <v>7.92</v>
+        <v>0.127440263865141</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0591020784273575</v>
+        <v>0.00761250916198416</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5</v>
+        <v>1.44</v>
       </c>
       <c r="F77" t="n">
-        <v>0.71</v>
+        <v>0.0177361348644033</v>
       </c>
       <c r="G77" t="n">
-        <v>1.42</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0983669499334494</v>
+        <v>0.0134769118006357</v>
       </c>
       <c r="I77" t="n">
-        <v>2.99</v>
+        <v>10.57</v>
       </c>
       <c r="J77" t="n">
-        <v>16.98</v>
+        <v>29.53</v>
       </c>
       <c r="K77" t="n">
-        <v>11.86</v>
+        <v>32.25</v>
       </c>
       <c r="L77" t="n">
-        <v>0.119432783864032</v>
+        <v>3.13</v>
       </c>
       <c r="M77" t="n">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="N77" t="n">
-        <v>0.136531176410361</v>
+        <v>0.0137341803078432</v>
       </c>
       <c r="O77" t="n">
-        <v>1.5865670113648</v>
+        <v>1.96</v>
       </c>
       <c r="P77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -4548,52 +4548,52 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>51.54</v>
+        <v>20.14</v>
       </c>
       <c r="C78" t="n">
-        <v>4.66</v>
+        <v>0.127769334477259</v>
       </c>
       <c r="D78" t="n">
-        <v>0.29</v>
+        <v>0.00734428238754719</v>
       </c>
       <c r="E78" t="n">
-        <v>0.87</v>
+        <v>1.48</v>
       </c>
       <c r="F78" t="n">
-        <v>0.61</v>
+        <v>0.0173293295747021</v>
       </c>
       <c r="G78" t="n">
-        <v>3.06</v>
+        <v>1.34</v>
       </c>
       <c r="H78" t="n">
-        <v>0.468709903890382</v>
+        <v>0.0135722515014089</v>
       </c>
       <c r="I78" t="n">
-        <v>0.65</v>
+        <v>10.41</v>
       </c>
       <c r="J78" t="n">
-        <v>25.4</v>
+        <v>28.68</v>
       </c>
       <c r="K78" t="n">
-        <v>9.23</v>
+        <v>31.23</v>
       </c>
       <c r="L78" t="n">
-        <v>0.1</v>
+        <v>3.59</v>
       </c>
       <c r="M78" t="n">
-        <v>0.85</v>
+        <v>0.37</v>
       </c>
       <c r="N78" t="n">
-        <v>0.132616747766722</v>
+        <v>0.0139848020590753</v>
       </c>
       <c r="O78" t="n">
-        <v>1.3986733483429</v>
+        <v>2.58</v>
       </c>
       <c r="P78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -4601,51 +4601,687 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>51.26</v>
+        <v>20.14</v>
       </c>
       <c r="C79" t="n">
-        <v>5.74</v>
+        <v>0.127769334477259</v>
       </c>
       <c r="D79" t="n">
-        <v>0.15</v>
+        <v>0.00734428238754719</v>
       </c>
       <c r="E79" t="n">
-        <v>0.79</v>
+        <v>1.48</v>
       </c>
       <c r="F79" t="n">
-        <v>1.09</v>
+        <v>0.0173293295747021</v>
       </c>
       <c r="G79" t="n">
-        <v>3.53</v>
+        <v>1.34</v>
       </c>
       <c r="H79" t="n">
-        <v>0.607606181802376</v>
+        <v>0.0135722515014089</v>
       </c>
       <c r="I79" t="n">
-        <v>2.67</v>
+        <v>10.41</v>
       </c>
       <c r="J79" t="n">
-        <v>21.88</v>
+        <v>28.68</v>
       </c>
       <c r="K79" t="n">
-        <v>10.47</v>
+        <v>31.23</v>
       </c>
       <c r="L79" t="n">
-        <v>0.08</v>
+        <v>3.59</v>
       </c>
       <c r="M79" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="N79" t="n">
-        <v>0.199060557318611</v>
+        <v>0.0139848020590753</v>
       </c>
       <c r="O79" t="n">
-        <v>1.18333326087902</v>
+        <v>2.58</v>
       </c>
       <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.127440263865141</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.00761250916198416</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0177361348644033</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0134769118006357</v>
+      </c>
+      <c r="I80" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="J80" t="n">
+        <v>29.53</v>
+      </c>
+      <c r="K80" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.0137341803078432</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>31.94</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.480555540154682</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0174645857012168</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0632994206192992</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0433276966151966</v>
+      </c>
+      <c r="I81" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="J81" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="K81" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.0425204446538959</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.4728323122557</v>
+      </c>
+      <c r="P81" t="n">
         <v>1</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.127769334477259</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.00734428238754719</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0173293295747021</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0135722515014089</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="J82" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="K82" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.0139848020590753</v>
+      </c>
+      <c r="O82" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>31.94</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.480555540154682</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.0174645857012168</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0632994206192992</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.0433276966151966</v>
+      </c>
+      <c r="I83" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="J83" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="K83" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.0425204446538959</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.4728323122557</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.127769334477259</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.00734428238754719</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0173293295747021</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.0135722515014089</v>
+      </c>
+      <c r="I84" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="J84" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="K84" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.0139848020590753</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.127440263865141</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.00761250916198416</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0177361348644033</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.0134769118006357</v>
+      </c>
+      <c r="I85" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="J85" t="n">
+        <v>29.53</v>
+      </c>
+      <c r="K85" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="L85" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.0137341803078432</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.127440263865141</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.00761250916198416</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0177361348644033</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0134769118006357</v>
+      </c>
+      <c r="I86" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="J86" t="n">
+        <v>29.53</v>
+      </c>
+      <c r="K86" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.0137341803078432</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>31.94</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.480555540154682</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0174645857012168</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0632994206192992</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0433276966151966</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="J87" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="K87" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.0425204446538959</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.4728323122557</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.127769334477259</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.00734428238754719</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0173293295747021</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.0135722515014089</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="J88" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="K88" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.0139848020590753</v>
+      </c>
+      <c r="O88" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.374655333316521</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0534298517752503</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="J89" t="n">
+        <v>42.82</v>
+      </c>
+      <c r="K89" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="L89" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.0553168377598981</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.756597977148339</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.0704286406758531</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.0427716719261624</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J90" t="n">
+        <v>55.46</v>
+      </c>
+      <c r="K90" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="L90" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.0256688792822023</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.19113080811578</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.0704286406758531</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.0427716719261624</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J91" t="n">
+        <v>55.46</v>
+      </c>
+      <c r="K91" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="L91" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.0256688792822023</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.19113080811578</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q91" t="n">
         <v>5</v>
       </c>
     </row>
